--- a/teaching/traditional_assets/database/data/sweden/sweden_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_investments_asset_management.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.123</v>
+        <v>0.0815</v>
       </c>
       <c r="E2">
-        <v>-0.147785</v>
+        <v>-0.111</v>
       </c>
       <c r="F2">
-        <v>0.436</v>
+        <v>0.351</v>
       </c>
       <c r="G2">
-        <v>0.1384747967574124</v>
+        <v>0.195247635865529</v>
       </c>
       <c r="H2">
-        <v>0.1376861434377417</v>
+        <v>0.1943251970799707</v>
       </c>
       <c r="I2">
-        <v>0.1512552476763577</v>
+        <v>0.2060166785408503</v>
       </c>
       <c r="J2">
-        <v>0.1400833592495521</v>
+        <v>0.1939719352921102</v>
       </c>
       <c r="K2">
-        <v>420.351</v>
+        <v>741.694</v>
       </c>
       <c r="L2">
-        <v>0.1109846707656221</v>
+        <v>0.1632078512919534</v>
       </c>
       <c r="M2">
-        <v>307.571</v>
+        <v>177.949</v>
       </c>
       <c r="N2">
-        <v>0.0201023906845784</v>
+        <v>0.005961085067624108</v>
       </c>
       <c r="O2">
-        <v>0.731700412274504</v>
+        <v>0.239922393871327</v>
       </c>
       <c r="P2">
-        <v>173.731</v>
+        <v>170.07</v>
       </c>
       <c r="Q2">
-        <v>0.01135480404856924</v>
+        <v>0.00569714770777488</v>
       </c>
       <c r="R2">
-        <v>0.4132998375167419</v>
+        <v>0.2292994145833727</v>
       </c>
       <c r="S2">
-        <v>133.84</v>
+        <v>7.879</v>
       </c>
       <c r="T2">
-        <v>0.4351515585019394</v>
+        <v>0.04427673097348117</v>
       </c>
       <c r="U2">
-        <v>843.5360000000001</v>
+        <v>1690.536</v>
       </c>
       <c r="V2">
-        <v>0.05513227914369859</v>
+        <v>0.05663099486864771</v>
       </c>
       <c r="W2">
-        <v>-0.02899109792284866</v>
+        <v>0.007297668038408779</v>
       </c>
       <c r="X2">
-        <v>0.048058946487024</v>
+        <v>0.03527940636772386</v>
       </c>
       <c r="Y2">
-        <v>-0.07705004440987266</v>
+        <v>-0.02798173832931508</v>
       </c>
       <c r="Z2">
-        <v>1.462177722640525</v>
+        <v>1.692022776808192</v>
       </c>
       <c r="AA2">
-        <v>0.02498338200261278</v>
+        <v>0.05523066926575699</v>
       </c>
       <c r="AB2">
-        <v>0.04776221733662046</v>
+        <v>0.03524589269898866</v>
       </c>
       <c r="AC2">
-        <v>-0.02203208849576509</v>
+        <v>0.01998517309545322</v>
       </c>
       <c r="AD2">
-        <v>1462.208</v>
+        <v>1490.692</v>
       </c>
       <c r="AE2">
-        <v>579.1021916923661</v>
+        <v>0.01177394034536892</v>
       </c>
       <c r="AF2">
-        <v>2041.310191692366</v>
+        <v>1490.703773940345</v>
       </c>
       <c r="AG2">
-        <v>1197.774191692366</v>
+        <v>-199.8322260596547</v>
       </c>
       <c r="AH2">
-        <v>0.1177122300701167</v>
+        <v>0.04756176264434373</v>
       </c>
       <c r="AI2">
-        <v>0.3482370936323703</v>
+        <v>0.2302969437187033</v>
       </c>
       <c r="AJ2">
-        <v>0.07260120095662966</v>
+        <v>-0.006739261366002994</v>
       </c>
       <c r="AK2">
-        <v>0.2386810655430655</v>
+        <v>-0.04178468248878719</v>
       </c>
       <c r="AL2">
-        <v>63.343</v>
+        <v>85.39</v>
       </c>
       <c r="AM2">
-        <v>56.276</v>
+        <v>79.283</v>
       </c>
       <c r="AN2">
-        <v>1.898919639853978</v>
+        <v>1.450923634112608</v>
       </c>
       <c r="AO2">
-        <v>9.093538354672184</v>
+        <v>10.96414100011711</v>
       </c>
       <c r="AP2">
-        <v>1.555508475343356</v>
+        <v>-0.1945011441983228</v>
       </c>
       <c r="AQ2">
-        <v>10.23548226597484</v>
+        <v>11.80868534238109</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EQT AB (publ) (OM:EQT)</t>
+          <t>Bure Equity AB (publ) (OM:BURE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,113 +727,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="F3">
-        <v>0.436</v>
+      <c r="D3">
+        <v>0.238</v>
+      </c>
+      <c r="E3">
+        <v>0.299</v>
       </c>
       <c r="G3">
-        <v>0.2780344827586207</v>
+        <v>0.7366288492706645</v>
       </c>
       <c r="H3">
-        <v>0.2729310344827586</v>
+        <v>0.7366288492706645</v>
       </c>
       <c r="I3">
-        <v>0.3701191615175072</v>
+        <v>0.9304700162074555</v>
       </c>
       <c r="J3">
-        <v>0.3429710567607218</v>
+        <v>0.9294901464558434</v>
       </c>
       <c r="K3">
-        <v>189.5</v>
+        <v>571.8</v>
       </c>
       <c r="L3">
-        <v>0.3267241379310345</v>
+        <v>0.9267423014586709</v>
       </c>
       <c r="M3">
-        <v>185.9</v>
+        <v>23.1</v>
       </c>
       <c r="N3">
-        <v>0.01669690492015305</v>
+        <v>0.008714679141358888</v>
       </c>
       <c r="O3">
-        <v>0.9810026385224274</v>
+        <v>0.040398740818468</v>
       </c>
       <c r="P3">
-        <v>73.5</v>
+        <v>23.1</v>
       </c>
       <c r="Q3">
-        <v>0.006601519696779177</v>
+        <v>0.008714679141358888</v>
       </c>
       <c r="R3">
-        <v>0.3878627968337731</v>
+        <v>0.040398740818468</v>
       </c>
       <c r="S3">
-        <v>112.4</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.6046261430876816</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>251.9</v>
+        <v>154.2</v>
       </c>
       <c r="V3">
-        <v>0.02262480015807721</v>
+        <v>0.05817331270985023</v>
+      </c>
+      <c r="W3">
+        <v>0.5007005253940455</v>
       </c>
       <c r="X3">
-        <v>0.04799370598680852</v>
+        <v>0.03531473766874144</v>
+      </c>
+      <c r="Y3">
+        <v>0.4653857877253041</v>
       </c>
       <c r="Z3">
-        <v>175.5218658892128</v>
+        <v>0.5909282457955024</v>
       </c>
       <c r="AA3">
-        <v>60.19891982863702</v>
+        <v>0.549261981729356</v>
       </c>
       <c r="AB3">
-        <v>0.04780871313851308</v>
+        <v>0.03524630444731847</v>
       </c>
       <c r="AC3">
-        <v>60.1511111154985</v>
+        <v>0.5140156772820376</v>
       </c>
       <c r="AD3">
-        <v>111.5</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>3.304431599229287</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>114.8044315992293</v>
+        <v>9</v>
       </c>
       <c r="AG3">
-        <v>-137.0955684007707</v>
+        <v>-145.2</v>
       </c>
       <c r="AH3">
-        <v>0.01020610443698458</v>
+        <v>0.003383840282738655</v>
       </c>
       <c r="AI3">
-        <v>0.1756481842057398</v>
+        <v>0.004715498270983967</v>
       </c>
       <c r="AJ3">
-        <v>-0.01246696855894609</v>
+        <v>-0.05795250449012173</v>
       </c>
       <c r="AK3">
-        <v>-0.3412846800195315</v>
+        <v>-0.08276333789329686</v>
       </c>
       <c r="AL3">
-        <v>7.51</v>
+        <v>1.66</v>
       </c>
       <c r="AM3">
-        <v>7.51</v>
+        <v>1.66</v>
       </c>
       <c r="AN3">
-        <v>0.4876875300704195</v>
+        <v>0.01564129301355579</v>
       </c>
       <c r="AO3">
-        <v>28.21571238348868</v>
+        <v>345.8433734939759</v>
       </c>
       <c r="AP3">
-        <v>-0.5996394541432477</v>
+        <v>-0.2523461939520333</v>
       </c>
       <c r="AQ3">
-        <v>28.21571238348868</v>
+        <v>345.8433734939759</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bure Equity AB (publ) (OM:BURE)</t>
+          <t>EQT AB (publ) (OM:EQT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,122 +861,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.16</v>
-      </c>
-      <c r="E4">
-        <v>0.274</v>
+      <c r="F4">
+        <v>0.351</v>
       </c>
       <c r="G4">
-        <v>0.7091906721536351</v>
+        <v>0.3343346988317402</v>
       </c>
       <c r="H4">
-        <v>0.7091906721536351</v>
+        <v>0.3280230617508724</v>
       </c>
       <c r="I4">
-        <v>0.8631850420512081</v>
+        <v>0.2328933394022151</v>
       </c>
       <c r="J4">
-        <v>0.8616805651374857</v>
+        <v>0.2143794209386952</v>
       </c>
       <c r="K4">
-        <v>250.8</v>
+        <v>125.6</v>
       </c>
       <c r="L4">
-        <v>0.8600823045267489</v>
+        <v>0.1905628887877408</v>
       </c>
       <c r="M4">
-        <v>18.12</v>
+        <v>110.713</v>
       </c>
       <c r="N4">
-        <v>0.01155096576783324</v>
+        <v>0.00453327491677688</v>
       </c>
       <c r="O4">
-        <v>0.0722488038277512</v>
+        <v>0.8814729299363058</v>
       </c>
       <c r="P4">
-        <v>14</v>
+        <v>110.6</v>
       </c>
       <c r="Q4">
-        <v>0.00892458723784025</v>
+        <v>0.004528647997936312</v>
       </c>
       <c r="R4">
-        <v>0.05582137161084529</v>
+        <v>0.8805732484076433</v>
       </c>
       <c r="S4">
-        <v>4.120000000000001</v>
+        <v>0.1129999999999995</v>
       </c>
       <c r="T4">
-        <v>0.2273730684326711</v>
+        <v>0.00102065701408145</v>
       </c>
       <c r="U4">
-        <v>76.40000000000001</v>
+        <v>904.8</v>
       </c>
       <c r="V4">
-        <v>0.04870274749792822</v>
+        <v>0.03704810767208658</v>
       </c>
       <c r="W4">
-        <v>0.2574420036953398</v>
+        <v>0.2331106161841129</v>
       </c>
       <c r="X4">
-        <v>0.04788509586707524</v>
+        <v>0.03534043818194259</v>
       </c>
       <c r="Y4">
-        <v>0.2095569078282645</v>
+        <v>0.1977701780021703</v>
       </c>
       <c r="Z4">
-        <v>0.3182828587589593</v>
+        <v>1.725844461901021</v>
       </c>
       <c r="AA4">
-        <v>0.2742581536089946</v>
+        <v>0.369985536372595</v>
       </c>
       <c r="AB4">
-        <v>0.04777075781465943</v>
+        <v>0.03524660306695699</v>
       </c>
       <c r="AC4">
-        <v>0.2264873957943352</v>
+        <v>0.334738933305638</v>
       </c>
       <c r="AD4">
-        <v>5.41</v>
+        <v>113.7</v>
       </c>
       <c r="AE4">
-        <v>3.1762086893386</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>8.586208689338601</v>
+        <v>113.7</v>
       </c>
       <c r="AG4">
-        <v>-67.8137913106614</v>
+        <v>-791.0999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.005443659268709004</v>
+        <v>0.004634007173133355</v>
       </c>
       <c r="AI4">
-        <v>0.007628888406671363</v>
+        <v>0.09789908730842087</v>
       </c>
       <c r="AJ4">
-        <v>-0.0451825001242968</v>
+        <v>-0.0334769288059853</v>
       </c>
       <c r="AK4">
-        <v>-0.06464081859905833</v>
+        <v>-3.083008573655493</v>
       </c>
       <c r="AL4">
-        <v>0.672</v>
+        <v>7.88</v>
       </c>
       <c r="AM4">
-        <v>-0.368</v>
+        <v>6.87</v>
       </c>
       <c r="AN4">
-        <v>0.02124568017593466</v>
+        <v>0.653072946582424</v>
       </c>
       <c r="AO4">
-        <v>373.2142857142857</v>
+        <v>19.47969543147208</v>
       </c>
       <c r="AP4">
-        <v>-0.2663124069692955</v>
+        <v>-4.543940264215967</v>
       </c>
       <c r="AQ4">
-        <v>-681.5217391304349</v>
+        <v>22.34352256186317</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Catella AB (publ) (OM:CAT B)</t>
+          <t>Ratos AB (publ) (OM:RATO B)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,43 +993,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.123</v>
+        <v>0.00267</v>
+      </c>
+      <c r="E5">
+        <v>-0.135</v>
       </c>
       <c r="G5">
-        <v>0.1785411365564037</v>
+        <v>0.05365137351814047</v>
       </c>
       <c r="H5">
-        <v>0.1785411365564037</v>
+        <v>0.05365137351814047</v>
       </c>
       <c r="I5">
-        <v>0.1702934497939012</v>
+        <v>0.06400200565882311</v>
       </c>
       <c r="J5">
-        <v>0.08514672489695059</v>
+        <v>0.04201186135952624</v>
       </c>
       <c r="K5">
-        <v>-6.82</v>
+        <v>56.7</v>
       </c>
       <c r="L5">
-        <v>-0.02892281594571671</v>
+        <v>0.02030729558396906</v>
       </c>
       <c r="M5">
-        <v>10.6</v>
+        <v>23.287</v>
       </c>
       <c r="N5">
-        <v>0.04337152209492635</v>
+        <v>0.0155984995646058</v>
       </c>
       <c r="O5">
-        <v>-1.55425219941349</v>
+        <v>0.410705467372134</v>
       </c>
       <c r="P5">
-        <v>10.6</v>
+        <v>23.287</v>
       </c>
       <c r="Q5">
-        <v>0.04337152209492635</v>
+        <v>0.0155984995646058</v>
       </c>
       <c r="R5">
-        <v>-1.55425219941349</v>
+        <v>0.410705467372134</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1032,73 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>76.5</v>
+        <v>359.3</v>
       </c>
       <c r="V5">
-        <v>0.3130114566284779</v>
+        <v>0.2406725165784714</v>
       </c>
       <c r="W5">
-        <v>-0.0384009009009009</v>
+        <v>0.05776872134488029</v>
       </c>
       <c r="X5">
-        <v>0.05932924709517265</v>
+        <v>0.04957357274165004</v>
       </c>
       <c r="Y5">
-        <v>-0.09773014799607355</v>
+        <v>0.008195148603230243</v>
       </c>
       <c r="Z5">
-        <v>1.29828640784257</v>
+        <v>5.313225499524262</v>
       </c>
       <c r="AA5">
-        <v>0.1105448356060215</v>
+        <v>0.2232184930579129</v>
       </c>
       <c r="AB5">
-        <v>0.04829569710011022</v>
+        <v>0.03748478246361214</v>
       </c>
       <c r="AC5">
-        <v>0.06224913850591128</v>
+        <v>0.1857337105943007</v>
       </c>
       <c r="AD5">
-        <v>98.2</v>
+        <v>1048.9</v>
       </c>
       <c r="AE5">
-        <v>27.72402269299049</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>125.9240226929905</v>
+        <v>1048.9</v>
       </c>
       <c r="AG5">
-        <v>49.42402269299049</v>
+        <v>689.6000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.3400374131207394</v>
+        <v>0.4126603194586513</v>
       </c>
       <c r="AI5">
-        <v>0.4240950986414182</v>
+        <v>0.4475784083635588</v>
       </c>
       <c r="AJ5">
-        <v>0.1682096046470388</v>
+        <v>0.3159679266895762</v>
       </c>
       <c r="AK5">
-        <v>0.2242224875907874</v>
+        <v>0.3475456103215402</v>
       </c>
       <c r="AL5">
-        <v>4.48</v>
+        <v>58.2</v>
       </c>
       <c r="AM5">
-        <v>2.24</v>
+        <v>57.419</v>
       </c>
       <c r="AN5">
-        <v>1.76936936936937</v>
+        <v>4.674242424242425</v>
       </c>
       <c r="AO5">
-        <v>8.191964285714285</v>
+        <v>3.070446735395189</v>
       </c>
       <c r="AP5">
-        <v>0.8905229314052341</v>
+        <v>3.073083778966132</v>
       </c>
       <c r="AQ5">
-        <v>16.38392857142857</v>
+        <v>3.112210243995889</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ratos AB (publ) (OM:RATO B)</t>
+          <t>Pegroco Invest AB (publ) (OM:PEGRO PREF)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,121 +1127,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0337</v>
+        <v>1.881</v>
       </c>
       <c r="E6">
-        <v>-0.442</v>
+        <v>2.747</v>
       </c>
       <c r="G6">
-        <v>0.04811391852762683</v>
+        <v>0.01408724832214765</v>
       </c>
       <c r="H6">
-        <v>0.04811391852762683</v>
+        <v>0.01395973154362416</v>
       </c>
       <c r="I6">
-        <v>0.02967958486712673</v>
+        <v>0.06570469798657717</v>
       </c>
       <c r="J6">
-        <v>0.01554226781503382</v>
+        <v>0.06501533722081637</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
-        <v>0.002181587402324382</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="M6">
-        <v>16.3</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.0144018377805266</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>2.963636363636364</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>16.3</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0144018377805266</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>2.963636363636364</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>321.5</v>
+        <v>19.5</v>
       </c>
       <c r="V6">
-        <v>0.2840607881251104</v>
+        <v>0.04833911750123947</v>
       </c>
       <c r="W6">
-        <v>0.005064456721915286</v>
+        <v>0.4646017699115044</v>
       </c>
       <c r="X6">
-        <v>0.07970887720313156</v>
+        <v>0.04081140324735744</v>
       </c>
       <c r="Y6">
-        <v>-0.07464442048121628</v>
+        <v>0.4237903666641469</v>
       </c>
       <c r="Z6">
-        <v>3.88115907861663</v>
+        <v>2.865384615384615</v>
       </c>
       <c r="AA6">
-        <v>0.06032201383260957</v>
+        <v>0.18629394703657</v>
       </c>
       <c r="AB6">
-        <v>0.04868361105409007</v>
+        <v>0.03640898919178966</v>
       </c>
       <c r="AC6">
-        <v>0.01163840277851949</v>
+        <v>0.1498849578447803</v>
       </c>
       <c r="AD6">
-        <v>1065.7</v>
+        <v>110.1</v>
       </c>
       <c r="AE6">
-        <v>544.873992957434</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1610.573992957434</v>
+        <v>110.1</v>
       </c>
       <c r="AG6">
-        <v>1289.073992957434</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.5872918854589039</v>
+        <v>0.2144109055501461</v>
       </c>
       <c r="AI6">
-        <v>0.5775204434008133</v>
+        <v>0.7561813186813187</v>
       </c>
       <c r="AJ6">
-        <v>0.5324828953128002</v>
+        <v>0.1834008097165992</v>
       </c>
       <c r="AK6">
-        <v>0.5224689258821501</v>
+        <v>0.71847739888977</v>
       </c>
       <c r="AL6">
-        <v>43.3</v>
+        <v>5.95</v>
       </c>
       <c r="AM6">
-        <v>40.86</v>
+        <v>2.06</v>
       </c>
       <c r="AN6">
-        <v>4.749108734402852</v>
+        <v>5.825396825396825</v>
       </c>
       <c r="AO6">
-        <v>1.965357967667436</v>
+        <v>1.645378151260504</v>
       </c>
       <c r="AP6">
-        <v>5.744536510505499</v>
+        <v>4.793650793650793</v>
       </c>
       <c r="AQ6">
-        <v>2.082721488007831</v>
+        <v>4.752427184466019</v>
       </c>
     </row>
     <row r="7">
@@ -1243,7 +1249,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seafire AB (publ) (OM:SEAF)</t>
+          <t>Catella AB (publ) (OM:CAT B)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1251,23 +1257,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0645</v>
+      </c>
+      <c r="E7">
+        <v>-0.111</v>
+      </c>
       <c r="G7">
-        <v>-0.03006451612903226</v>
+        <v>0.1739290989660266</v>
       </c>
       <c r="H7">
-        <v>-0.03135483870967742</v>
+        <v>0.1739290989660266</v>
       </c>
       <c r="I7">
-        <v>0.01296774193548387</v>
+        <v>0.1946085672082718</v>
       </c>
       <c r="J7">
-        <v>0.01296774193548387</v>
+        <v>0.1085238550888895</v>
       </c>
       <c r="K7">
-        <v>-0.84</v>
+        <v>13.4</v>
       </c>
       <c r="L7">
-        <v>-0.05419354838709677</v>
+        <v>0.04948301329394387</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1276,7 +1288,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1285,79 +1297,79 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2.05</v>
+        <v>162.3</v>
       </c>
       <c r="V7">
-        <v>0.259165613147914</v>
+        <v>0.5556316330023965</v>
       </c>
       <c r="W7">
-        <v>-0.2896551724137931</v>
+        <v>0.08856576338400528</v>
       </c>
       <c r="X7">
-        <v>0.0928890763685649</v>
+        <v>0.04623448412786546</v>
       </c>
       <c r="Y7">
-        <v>-0.382544248782358</v>
+        <v>0.04233127925613982</v>
       </c>
       <c r="Z7">
-        <v>4.177897574123989</v>
+        <v>1.404564315352697</v>
       </c>
       <c r="AA7">
-        <v>0.05417789757412399</v>
+        <v>0.1524287342223614</v>
       </c>
       <c r="AB7">
-        <v>0.05080444326229939</v>
+        <v>0.03532913836206786</v>
       </c>
       <c r="AC7">
-        <v>0.003373454311824606</v>
+        <v>0.1170995958602935</v>
       </c>
       <c r="AD7">
-        <v>15.9</v>
+        <v>157.4</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>15.9</v>
+        <v>157.4</v>
       </c>
       <c r="AG7">
-        <v>13.85</v>
+        <v>-4.900000000000006</v>
       </c>
       <c r="AH7">
-        <v>0.6677866442671146</v>
+        <v>0.350166852057842</v>
       </c>
       <c r="AI7">
-        <v>0.828125</v>
+        <v>0.4480500996299459</v>
       </c>
       <c r="AJ7">
-        <v>0.6364889705882353</v>
+        <v>-0.01706128133704737</v>
       </c>
       <c r="AK7">
-        <v>0.8075801749271136</v>
+        <v>-0.02592592592592596</v>
       </c>
       <c r="AL7">
-        <v>0.734</v>
+        <v>5.47</v>
       </c>
       <c r="AM7">
-        <v>0.7</v>
+        <v>5.135</v>
       </c>
       <c r="AN7">
-        <v>18.31797235023042</v>
+        <v>2.882783882783883</v>
       </c>
       <c r="AO7">
-        <v>0.2738419618528611</v>
+        <v>9.63436928702011</v>
       </c>
       <c r="AP7">
-        <v>15.95622119815668</v>
+        <v>-0.08974358974358984</v>
       </c>
       <c r="AQ7">
-        <v>0.2871428571428572</v>
+        <v>10.26290165530672</v>
       </c>
     </row>
     <row r="8">
@@ -1377,25 +1389,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.258</v>
+        <v>0.364</v>
       </c>
       <c r="G8">
-        <v>0.02338461538461539</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="H8">
-        <v>0.02338461538461539</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="I8">
-        <v>0.01057692307692308</v>
+        <v>0.03739316239316239</v>
       </c>
       <c r="J8">
-        <v>0.01057692307692308</v>
+        <v>0.03739316239316239</v>
       </c>
       <c r="K8">
-        <v>2.53</v>
+        <v>0.837</v>
       </c>
       <c r="L8">
-        <v>0.0973076923076923</v>
+        <v>0.01788461538461538</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1419,73 +1431,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.73</v>
+        <v>9.58</v>
       </c>
       <c r="V8">
-        <v>0.1138157894736842</v>
+        <v>0.1761029411764706</v>
       </c>
       <c r="W8">
-        <v>0.4608378870673952</v>
+        <v>0.08980686695278969</v>
       </c>
       <c r="X8">
-        <v>0.07700616970282816</v>
+        <v>0.05009051704527448</v>
       </c>
       <c r="Y8">
-        <v>0.3838317173645671</v>
+        <v>0.03971634990751521</v>
       </c>
       <c r="Z8">
-        <v>4.938271604938271</v>
+        <v>3.275017494751574</v>
       </c>
       <c r="AA8">
-        <v>0.05223171889838556</v>
+        <v>0.1224632610216935</v>
       </c>
       <c r="AB8">
-        <v>0.05033943369951395</v>
+        <v>0.03753153837513757</v>
       </c>
       <c r="AC8">
-        <v>0.001892285198871614</v>
+        <v>0.08493172264655591</v>
       </c>
       <c r="AD8">
-        <v>19.8</v>
+        <v>39.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>19.8</v>
+        <v>39.6</v>
       </c>
       <c r="AG8">
-        <v>18.07</v>
+        <v>30.02</v>
       </c>
       <c r="AH8">
-        <v>0.5657142857142857</v>
+        <v>0.4212765957446808</v>
       </c>
       <c r="AI8">
-        <v>0.679945054945055</v>
+        <v>0.7388059701492538</v>
       </c>
       <c r="AJ8">
-        <v>0.5431319507063421</v>
+        <v>0.35560293769249</v>
       </c>
       <c r="AK8">
-        <v>0.6597298284045272</v>
+        <v>0.6819627442071786</v>
       </c>
       <c r="AL8">
-        <v>0.8139999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="AM8">
-        <v>0.7729999999999999</v>
+        <v>2.128</v>
       </c>
       <c r="AN8">
-        <v>11.51162790697675</v>
+        <v>11.82089552238806</v>
       </c>
       <c r="AO8">
-        <v>0.3378378378378379</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="AP8">
-        <v>10.50581395348837</v>
+        <v>8.961194029850747</v>
       </c>
       <c r="AQ8">
-        <v>0.3557567917205693</v>
+        <v>0.8223684210526315</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1508,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NAXS AB (publ) (OM:NAXS)</t>
+          <t>Seafire AB (publ) (OM:SEAF)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1504,116 +1516,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D9">
-        <v>-0.231</v>
-      </c>
-      <c r="E9">
-        <v>-0.293</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.01621739130434783</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01565217391304348</v>
       </c>
       <c r="I9">
-        <v>0.6572164948453608</v>
+        <v>0.05391304347826087</v>
       </c>
       <c r="J9">
-        <v>0.6572164948453608</v>
+        <v>0.05391304347826087</v>
       </c>
       <c r="K9">
-        <v>2.31</v>
+        <v>-0.855</v>
       </c>
       <c r="L9">
-        <v>0.595360824742268</v>
+        <v>-0.03717391304347826</v>
       </c>
       <c r="M9">
-        <v>7.08</v>
+        <v>0.896</v>
       </c>
       <c r="N9">
-        <v>0.1197969543147208</v>
+        <v>0.04206572769953051</v>
       </c>
       <c r="O9">
-        <v>3.064935064935065</v>
+        <v>-1.047953216374269</v>
       </c>
       <c r="P9">
-        <v>3.16</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.05346869712351946</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>1.367965367965368</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>3.92</v>
+        <v>0.896</v>
       </c>
       <c r="T9">
-        <v>0.5536723163841808</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>19.8</v>
+        <v>2.87</v>
       </c>
       <c r="V9">
-        <v>0.3350253807106599</v>
+        <v>0.1347417840375587</v>
       </c>
       <c r="W9">
-        <v>0.02766467065868264</v>
+        <v>-0.2590909090909091</v>
       </c>
       <c r="X9">
-        <v>0.04776221733662046</v>
+        <v>0.04663885785477884</v>
       </c>
       <c r="Y9">
-        <v>-0.02009754667793783</v>
+        <v>-0.3057297669456879</v>
       </c>
       <c r="Z9">
-        <v>0.07418738049713193</v>
+        <v>1.341107871720117</v>
       </c>
       <c r="AA9">
-        <v>0.04875717017208413</v>
+        <v>0.07230320699708455</v>
       </c>
       <c r="AB9">
-        <v>0.04776221733662046</v>
+        <v>0.03719052386466232</v>
       </c>
       <c r="AC9">
-        <v>0.0009949528354636639</v>
+        <v>0.03511268313242222</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="AG9">
-        <v>-19.8</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.358433734939759</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.8111792774369462</v>
       </c>
       <c r="AJ9">
-        <v>-0.5038167938931298</v>
+        <v>0.2977250247279921</v>
       </c>
       <c r="AK9">
-        <v>-0.3728813559322033</v>
+        <v>0.7652542372881357</v>
       </c>
       <c r="AL9">
-        <v>0.093</v>
+        <v>1.75</v>
       </c>
       <c r="AM9">
-        <v>0.092</v>
+        <v>1.722</v>
+      </c>
+      <c r="AN9">
+        <v>6.01010101010101</v>
       </c>
       <c r="AO9">
-        <v>27.41935483870968</v>
+        <v>0.7085714285714285</v>
+      </c>
+      <c r="AP9">
+        <v>4.560606060606061</v>
       </c>
       <c r="AQ9">
-        <v>27.71739130434782</v>
+        <v>0.7200929152148664</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1636,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eastnine AB (publ) (OM:EAST)</t>
+          <t>Transferator AB (publ) (NGM:TRAN A)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1633,115 +1645,115 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.1</v>
-      </c>
-      <c r="E10">
-        <v>-0.00257</v>
+        <v>0.0815</v>
       </c>
       <c r="G10">
-        <v>0.3015625</v>
+        <v>0.1209251101321586</v>
       </c>
       <c r="H10">
-        <v>0.3015625</v>
+        <v>0.1209251101321586</v>
       </c>
       <c r="I10">
-        <v>0.559375</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="J10">
-        <v>0.5277739448051948</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="K10">
-        <v>29</v>
+        <v>-0.344</v>
       </c>
       <c r="L10">
-        <v>2.265625</v>
+        <v>-0.07577092511013216</v>
       </c>
       <c r="M10">
-        <v>11.52</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.03694676074406671</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.3972413793103448</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4.87</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.01561898652982681</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.1679310344827586</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>6.649999999999999</v>
-      </c>
-      <c r="T10">
-        <v>0.5772569444444444</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>44.3</v>
+        <v>0.993</v>
       </c>
       <c r="V10">
-        <v>0.1420782552918538</v>
+        <v>0.08710526315789473</v>
       </c>
       <c r="W10">
-        <v>0.1074074074074074</v>
+        <v>-0.05383411580594679</v>
       </c>
       <c r="X10">
-        <v>0.05474631154501884</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y10">
-        <v>0.05266109586238857</v>
+        <v>-0.08907961197625056</v>
       </c>
       <c r="Z10">
-        <v>0.04733727810650888</v>
+        <v>0.7374918778427551</v>
       </c>
       <c r="AA10">
-        <v>0.02498338200261278</v>
+        <v>0.05523066926575699</v>
       </c>
       <c r="AB10">
-        <v>0.04701547049837787</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC10">
-        <v>-0.02203208849576509</v>
+        <v>0.01998517309545322</v>
       </c>
       <c r="AD10">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>52.7</v>
+        <v>-0.993</v>
       </c>
       <c r="AH10">
-        <v>0.237279843444227</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.2635153490899212</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.1445816186556927</v>
+        <v>-0.09541654655520322</v>
       </c>
       <c r="AK10">
-        <v>0.1627547869054972</v>
+        <v>-0.1692517470598262</v>
       </c>
       <c r="AL10">
-        <v>1.51</v>
+        <v>0.002</v>
       </c>
       <c r="AM10">
-        <v>1.51</v>
+        <v>-0.03</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>4.741721854304636</v>
+        <v>170</v>
+      </c>
+      <c r="AP10">
+        <v>-1.146651270207852</v>
       </c>
       <c r="AQ10">
-        <v>4.741721854304636</v>
+        <v>-11.33333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transferator AB (publ) (NGM:TRAN A)</t>
+          <t>Dividend Sweden AB (publ) (NGM:DIVI B)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1760,74 +1772,74 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.456</v>
-      </c>
       <c r="G11">
-        <v>0.07837837837837837</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07837837837837837</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01400491400491401</v>
+        <v>0.0280327868852459</v>
       </c>
       <c r="J11">
-        <v>0.01400491400491401</v>
+        <v>0.0280327868852459</v>
       </c>
       <c r="K11">
-        <v>-0.352</v>
+        <v>1.07</v>
       </c>
       <c r="L11">
-        <v>-0.08648648648648648</v>
+        <v>0.08770491803278689</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.383</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.07422480620155039</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3579439252336448</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.383</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.07422480620155039</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.3579439252336448</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>0.234</v>
+        <v>0.29</v>
       </c>
       <c r="V11">
-        <v>0.02186915887850467</v>
+        <v>0.05620155038759689</v>
       </c>
       <c r="W11">
-        <v>-0.07082494969818913</v>
+        <v>0.1703821656050955</v>
       </c>
       <c r="X11">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y11">
-        <v>-0.1185871670348096</v>
+        <v>0.1351366694347918</v>
       </c>
       <c r="Z11">
-        <v>0.818913480885312</v>
+        <v>1.90565448297407</v>
       </c>
       <c r="AA11">
-        <v>0.01146881287726358</v>
+        <v>0.05342080599812559</v>
       </c>
       <c r="AB11">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC11">
-        <v>-0.03629340445935688</v>
+        <v>0.01817530982782183</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1839,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>-0.234</v>
+        <v>-0.29</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1848,28 +1860,22 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-0.02235811198165489</v>
+        <v>-0.0595482546201232</v>
       </c>
       <c r="AK11">
-        <v>-0.03801169590643275</v>
+        <v>-0.03746770025839793</v>
       </c>
       <c r="AL11">
-        <v>0.635</v>
+        <v>1.48</v>
       </c>
       <c r="AM11">
-        <v>0.635</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AO11">
-        <v>0.08976377952755905</v>
-      </c>
-      <c r="AP11">
-        <v>-0.5075921908893709</v>
+        <v>0.2310810810810811</v>
       </c>
       <c r="AQ11">
-        <v>0.08976377952755905</v>
+        <v>0.2310810810810811</v>
       </c>
     </row>
     <row r="12">
@@ -1880,7 +1886,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EOS Russia (OM:EOS)</t>
+          <t>NAXS AB (publ) (OM:NAXS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1888,116 +1894,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.323</v>
+      </c>
+      <c r="E12">
+        <v>-0.469</v>
+      </c>
       <c r="G12">
-        <v>-68.64406779661017</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-68.64406779661017</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-3.536894706248889</v>
+        <v>0.1668316831683168</v>
       </c>
       <c r="J12">
-        <v>-3.536894706248889</v>
+        <v>0.1668316831683168</v>
       </c>
       <c r="K12">
-        <v>-0.921</v>
+        <v>0.532</v>
       </c>
       <c r="L12">
-        <v>-3.902542372881356</v>
+        <v>0.2633663366336634</v>
       </c>
       <c r="M12">
-        <v>6.75</v>
+        <v>3.839</v>
       </c>
       <c r="N12">
-        <v>0.0811298076923077</v>
+        <v>0.05662241887905606</v>
       </c>
       <c r="O12">
-        <v>-7.328990228013029</v>
+        <v>7.216165413533835</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>3.74</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.05516224188790561</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>7.030075187969925</v>
       </c>
       <c r="S12">
-        <v>6.75</v>
+        <v>0.0990000000000002</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0.02578796561604589</v>
       </c>
       <c r="U12">
-        <v>10.1</v>
+        <v>24</v>
       </c>
       <c r="V12">
-        <v>0.1213942307692308</v>
+        <v>0.3539823008849557</v>
       </c>
       <c r="W12">
-        <v>-0.007649501661129568</v>
+        <v>0.007297668038408779</v>
       </c>
       <c r="X12">
-        <v>0.04779851919467263</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y12">
-        <v>-0.0554480208558022</v>
+        <v>-0.02794782813189499</v>
       </c>
       <c r="Z12">
-        <v>0.002007595930547984</v>
+        <v>0.03804143126177024</v>
       </c>
       <c r="AA12">
-        <v>-0.007100655419041978</v>
+        <v>0.006346516007532956</v>
       </c>
       <c r="AB12">
-        <v>0.04775713661687164</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC12">
-        <v>-0.05485779203591361</v>
+        <v>-0.02889898016277081</v>
       </c>
       <c r="AD12">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.02353575337368961</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.1345357533736896</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>-9.965464246626309</v>
+        <v>-24</v>
       </c>
       <c r="AH12">
-        <v>0.001614405746158406</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.001211656827858641</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-0.1360760212939184</v>
+        <v>-0.5479452054794521</v>
       </c>
       <c r="AK12">
-        <v>-0.09873195702783245</v>
+        <v>-0.4669260700389105</v>
       </c>
       <c r="AL12">
-        <v>0.054</v>
+        <v>0.046</v>
       </c>
       <c r="AM12">
-        <v>0.053</v>
-      </c>
-      <c r="AN12">
-        <v>-0.1373762376237624</v>
+        <v>0.037</v>
       </c>
       <c r="AO12">
-        <v>-15.61111111111111</v>
-      </c>
-      <c r="AP12">
-        <v>12.33349535473553</v>
+        <v>7.32608695652174</v>
       </c>
       <c r="AQ12">
-        <v>-15.90566037735849</v>
+        <v>9.108108108108109</v>
       </c>
     </row>
     <row r="13">
@@ -2023,34 +2029,34 @@
         <v>-0</v>
       </c>
       <c r="I13">
-        <v>1.117376294591485</v>
+        <v>1.229329173166927</v>
       </c>
       <c r="J13">
-        <v>1.117376294591485</v>
+        <v>1.229329173166927</v>
       </c>
       <c r="K13">
-        <v>-9.77</v>
+        <v>-7.9</v>
       </c>
       <c r="L13">
-        <v>1.124280782508631</v>
+        <v>1.232449297971919</v>
       </c>
       <c r="M13">
-        <v>5.41</v>
+        <v>6.93</v>
       </c>
       <c r="N13">
-        <v>0.01748545572074984</v>
+        <v>0.02057600950118765</v>
       </c>
       <c r="O13">
-        <v>-0.5537359263050154</v>
+        <v>-0.8772151898734176</v>
       </c>
       <c r="P13">
-        <v>5.41</v>
+        <v>6.93</v>
       </c>
       <c r="Q13">
-        <v>0.01748545572074984</v>
+        <v>0.02057600950118765</v>
       </c>
       <c r="R13">
-        <v>-0.5537359263050154</v>
+        <v>-0.8772151898734176</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2059,31 +2065,31 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>16</v>
+        <v>37.3</v>
       </c>
       <c r="V13">
-        <v>0.05171299288946348</v>
+        <v>0.1107482185273159</v>
       </c>
       <c r="W13">
-        <v>-0.02899109792284866</v>
+        <v>-0.02726958923023818</v>
       </c>
       <c r="X13">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y13">
-        <v>-0.07675331525946913</v>
+        <v>-0.06251508540054194</v>
       </c>
       <c r="Z13">
-        <v>-0.02750870528648306</v>
+        <v>-0.02341980270369017</v>
       </c>
       <c r="AA13">
-        <v>-0.03073757518201963</v>
+        <v>-0.02879064669345999</v>
       </c>
       <c r="AB13">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC13">
-        <v>-0.07849979251864009</v>
+        <v>-0.06403614286376376</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>-16</v>
+        <v>-37.3</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2104,22 +2110,22 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-0.05453306066803</v>
+        <v>-0.1245409015025042</v>
       </c>
       <c r="AK13">
-        <v>-0.05845816587504567</v>
+        <v>-0.1404367469879518</v>
       </c>
       <c r="AL13">
-        <v>0.051</v>
+        <v>0.022</v>
       </c>
       <c r="AM13">
-        <v>0.051</v>
+        <v>0.022</v>
       </c>
       <c r="AO13">
-        <v>-190.3921568627451</v>
+        <v>-358.1818181818182</v>
       </c>
       <c r="AQ13">
-        <v>-190.3921568627451</v>
+        <v>-358.1818181818182</v>
       </c>
     </row>
     <row r="14">
@@ -2130,7 +2136,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Havsfrun Investment AB (publ) (OM:HAV B)</t>
+          <t>Onoterat AB (publ) (NGM:ONTRAT)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2139,109 +2145,109 @@
         </is>
       </c>
       <c r="G14">
-        <v>-0</v>
+        <v>-1.345454545454545</v>
       </c>
       <c r="H14">
-        <v>-0</v>
+        <v>-1.345454545454545</v>
       </c>
       <c r="I14">
-        <v>5.933823529411764</v>
+        <v>-1.127272727272727</v>
       </c>
       <c r="J14">
-        <v>5.933823529411764</v>
+        <v>-1.127272727272727</v>
       </c>
       <c r="K14">
-        <v>-0.917</v>
+        <v>-0.74</v>
       </c>
       <c r="L14">
-        <v>6.742647058823529</v>
+        <v>-4.484848484848484</v>
       </c>
       <c r="M14">
-        <v>1.85</v>
+        <v>0.001</v>
       </c>
       <c r="N14">
-        <v>0.08043478260869566</v>
+        <v>0.0007352941176470588</v>
       </c>
       <c r="O14">
-        <v>-2.017448200654308</v>
+        <v>-0.001351351351351351</v>
       </c>
       <c r="P14">
-        <v>1.85</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.08043478260869566</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>-2.017448200654308</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>3.84</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V14">
-        <v>0.1669565217391304</v>
+        <v>0.0625</v>
       </c>
       <c r="W14">
-        <v>-0.03758196721311476</v>
+        <v>-0.3032786885245902</v>
       </c>
       <c r="X14">
-        <v>0.048058946487024</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y14">
-        <v>-0.08564091370013877</v>
+        <v>-0.3385241846948939</v>
       </c>
       <c r="Z14">
-        <v>-0.006910569105691058</v>
+        <v>0.08172362555720654</v>
       </c>
       <c r="AA14">
-        <v>-0.04100609756097561</v>
+        <v>-0.09212481426448736</v>
       </c>
       <c r="AB14">
-        <v>0.04772116331966839</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC14">
-        <v>-0.088727260880644</v>
+        <v>-0.1273703104347911</v>
       </c>
       <c r="AD14">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>-3.536</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="AH14">
-        <v>0.01304497082046001</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.01550703937971843</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>-0.1816687217427045</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="AK14">
-        <v>-0.224308551129155</v>
+        <v>-0.04683195592286502</v>
       </c>
       <c r="AL14">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="AM14">
-        <v>-0.012</v>
+        <v>0.001</v>
       </c>
       <c r="AO14">
-        <v>-47.47058823529412</v>
+        <v>-186</v>
       </c>
       <c r="AQ14">
-        <v>67.25</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="15">
@@ -2252,7 +2258,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pegroco Invest AB (publ) (OM:PEGRO PREF)</t>
+          <t>Havsfrun Investment AB (publ) (OM:HAV B)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2261,40 +2267,40 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.04975466143277723</v>
+        <v>-0</v>
       </c>
       <c r="H15">
-        <v>0.04975466143277723</v>
+        <v>-0</v>
       </c>
       <c r="I15">
-        <v>-0.02875368007850834</v>
+        <v>1.529850746268657</v>
       </c>
       <c r="J15">
-        <v>-0.02875368007850834</v>
+        <v>1.529850746268657</v>
       </c>
       <c r="K15">
-        <v>-37.4</v>
+        <v>-2.2</v>
       </c>
       <c r="L15">
-        <v>-0.36702649656526</v>
+        <v>1.641791044776119</v>
       </c>
       <c r="M15">
-        <v>41.581</v>
+        <v>2.03</v>
       </c>
       <c r="N15">
-        <v>0.1050025252525252</v>
+        <v>0.06721854304635762</v>
       </c>
       <c r="O15">
-        <v>-1.111791443850267</v>
+        <v>-0.9227272727272726</v>
       </c>
       <c r="P15">
-        <v>41.581</v>
+        <v>2.03</v>
       </c>
       <c r="Q15">
-        <v>0.1050025252525252</v>
+        <v>0.06721854304635762</v>
       </c>
       <c r="R15">
-        <v>-1.111791443850267</v>
+        <v>-0.9227272727272726</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2303,73 +2309,67 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>18.7</v>
+        <v>11.1</v>
       </c>
       <c r="V15">
-        <v>0.04722222222222222</v>
+        <v>0.3675496688741722</v>
       </c>
       <c r="W15">
-        <v>-0.5289957567185289</v>
+        <v>-0.1139896373056995</v>
       </c>
       <c r="X15">
-        <v>0.05048908684661711</v>
+        <v>0.03524954779149381</v>
       </c>
       <c r="Y15">
-        <v>-0.5794848435651461</v>
+        <v>-0.1492391850971933</v>
       </c>
       <c r="Z15">
-        <v>2.592875318066158</v>
+        <v>-0.08500380614057347</v>
       </c>
       <c r="AA15">
-        <v>-0.07455470737913486</v>
+        <v>-0.1300431362598325</v>
       </c>
       <c r="AB15">
-        <v>0.04742135670177973</v>
+        <v>0.03524554361726521</v>
       </c>
       <c r="AC15">
-        <v>-0.1219760640809146</v>
+        <v>-0.1652886798770977</v>
       </c>
       <c r="AD15">
-        <v>48.1</v>
+        <v>0.006</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>48.1</v>
+        <v>0.006</v>
       </c>
       <c r="AG15">
-        <v>29.4</v>
+        <v>-11.094</v>
       </c>
       <c r="AH15">
-        <v>0.1083089394280567</v>
+        <v>0.0001986360325763094</v>
       </c>
       <c r="AI15">
-        <v>0.6671289875173371</v>
+        <v>0.0003528166529460191</v>
       </c>
       <c r="AJ15">
-        <v>0.0691114245416079</v>
+        <v>-0.580655291531456</v>
       </c>
       <c r="AK15">
-        <v>0.550561797752809</v>
+        <v>-1.878428716559431</v>
       </c>
       <c r="AL15">
-        <v>3.37</v>
+        <v>0.019</v>
       </c>
       <c r="AM15">
-        <v>3.37</v>
-      </c>
-      <c r="AN15">
-        <v>10.43383947939262</v>
+        <v>0.019</v>
       </c>
       <c r="AO15">
-        <v>-0.8694362017804155</v>
-      </c>
-      <c r="AP15">
-        <v>6.377440347071584</v>
+        <v>-107.8947368421053</v>
       </c>
       <c r="AQ15">
-        <v>-0.8694362017804155</v>
+        <v>-107.8947368421053</v>
       </c>
     </row>
     <row r="16">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dividend Sweden AB (publ) (NGM:DIVI B)</t>
+          <t>EOS Russia (OM:EOS)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2389,109 +2389,115 @@
         </is>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-0.436734693877551</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0.436734693877551</v>
       </c>
       <c r="I16">
-        <v>-1.239644970414201</v>
+        <v>1.056749175023227</v>
       </c>
       <c r="J16">
-        <v>-1.239644970414201</v>
+        <v>1.056749175023227</v>
       </c>
       <c r="K16">
-        <v>-2.01</v>
+        <v>-26.5</v>
       </c>
       <c r="L16">
-        <v>-0.5946745562130177</v>
+        <v>1.081632653061225</v>
       </c>
       <c r="M16">
-        <v>2.46</v>
+        <v>6.77</v>
       </c>
       <c r="N16">
-        <v>0.6758241758241758</v>
+        <v>0.1151360544217687</v>
       </c>
       <c r="O16">
-        <v>-1.223880597014926</v>
+        <v>-0.2554716981132075</v>
       </c>
       <c r="P16">
-        <v>2.46</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.6758241758241758</v>
+        <v>-0</v>
       </c>
       <c r="R16">
-        <v>-1.223880597014926</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>6.77</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0.061</v>
+        <v>4.16</v>
       </c>
       <c r="V16">
-        <v>0.01675824175824176</v>
+        <v>0.0707482993197279</v>
       </c>
       <c r="W16">
-        <v>-0.1932692307692307</v>
+        <v>-0.2389540126239856</v>
       </c>
       <c r="X16">
-        <v>0.04889088003367124</v>
+        <v>0.03527940636772386</v>
       </c>
       <c r="Y16">
-        <v>-0.242160110802902</v>
+        <v>-0.2742334189917094</v>
       </c>
       <c r="Z16">
-        <v>0.3205006637587711</v>
+        <v>-0.2427598751346425</v>
       </c>
       <c r="AA16">
-        <v>-0.3973070358429736</v>
+        <v>-0.2565362977772752</v>
       </c>
       <c r="AB16">
-        <v>0.04798028964754468</v>
+        <v>0.03524589269898866</v>
       </c>
       <c r="AC16">
-        <v>-0.4452873254905183</v>
+        <v>-0.2917821904762639</v>
       </c>
       <c r="AD16">
-        <v>0.183</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.01177394034536892</v>
       </c>
       <c r="AF16">
-        <v>0.183</v>
+        <v>0.0977739403453689</v>
       </c>
       <c r="AG16">
-        <v>0.122</v>
+        <v>-4.062226059654631</v>
       </c>
       <c r="AH16">
-        <v>0.0478681663614962</v>
+        <v>0.0016600617273651</v>
       </c>
       <c r="AI16">
-        <v>0.02831502398267059</v>
+        <v>0.001228350185001979</v>
       </c>
       <c r="AJ16">
-        <v>0.03242955874534822</v>
+        <v>-0.07421248193398858</v>
       </c>
       <c r="AK16">
-        <v>0.0190565448297407</v>
+        <v>-0.05384870002748167</v>
       </c>
       <c r="AL16">
-        <v>0.103</v>
+        <v>0.65</v>
       </c>
       <c r="AM16">
-        <v>-1.137</v>
+        <v>0.65</v>
+      </c>
+      <c r="AN16">
+        <v>-0.003322002472187886</v>
       </c>
       <c r="AO16">
-        <v>-40.67961165048544</v>
+        <v>-39.84615384615384</v>
+      </c>
+      <c r="AP16">
+        <v>0.1569154071251017</v>
       </c>
       <c r="AQ16">
-        <v>3.685136323658751</v>
+        <v>-39.84615384615384</v>
       </c>
     </row>
     <row r="17">
@@ -2502,7 +2508,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Onoterat AB (publ) (NGM:ONTRAT)</t>
+          <t>Northern CapSek Ventures AB (publ) (NGM:CAPS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2510,23 +2516,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G17">
-        <v>-6.275862068965517</v>
-      </c>
-      <c r="H17">
-        <v>-6.517241379310344</v>
-      </c>
-      <c r="I17">
-        <v>-8.655172413793103</v>
-      </c>
-      <c r="J17">
-        <v>-8.655172413793103</v>
-      </c>
       <c r="K17">
-        <v>-0.259</v>
-      </c>
-      <c r="L17">
-        <v>-8.931034482758621</v>
+        <v>-0.206</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2550,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0.421</v>
+        <v>0.058</v>
       </c>
       <c r="V17">
-        <v>0.2681528662420382</v>
+        <v>0.01835443037974684</v>
       </c>
       <c r="X17">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB17">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2571,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>-0.421</v>
+        <v>-0.058</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2580,19 +2571,28 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>-0.3664055700609225</v>
+        <v>-0.01869761444229529</v>
       </c>
       <c r="AK17">
-        <v>-0.2085190688459633</v>
+        <v>-0.02281667977970102</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AM17">
-        <v>-0.001</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN17">
+        <v>-0</v>
+      </c>
+      <c r="AO17">
+        <v>-5.045454545454546</v>
+      </c>
+      <c r="AP17">
+        <v>0.1939799331103679</v>
       </c>
       <c r="AQ17">
-        <v>251</v>
+        <v>-5.045454545454546</v>
       </c>
     </row>
   </sheetData>
